--- a/Proyecto3/resultadosObtenidos.xlsx
+++ b/Proyecto3/resultadosObtenidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Documents\Documentos Escolares\ITAM\Séptimo Semestre\Inteligencia Artificial\IA_GIT\Proyecto3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561EBC7D-822E-4171-8914-0C1E21531BF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34BAADC-92B8-436F-AE4C-0E26C8994017}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="5988" xr2:uid="{110D7D00-F5A2-4075-8F36-8312FEE809DD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="12">
   <si>
     <t>Frecuencia</t>
   </si>
@@ -61,13 +61,22 @@
   <si>
     <t>Tiempo de ejecución promedio</t>
   </si>
+  <si>
+    <t>Cuatro Caminos - Ciudad Azteca</t>
+  </si>
+  <si>
+    <t>Polanco - Tepito</t>
+  </si>
+  <si>
+    <t>Mixcoac - Tlatenco</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -266,12 +275,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,6 +306,3159 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Tiempo de ejecución promedio utilizando razonamiento basado en modelos</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Razonamiento basado en modelos'!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Universidad - Centro Médico</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mixcoac-Tlatenco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Polanco-Tepito</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cuatro Caminos-Ciudad Azteca</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>El Rosario - La Paz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Razonamiento basado en modelos'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0333333333333345E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2000000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20366666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5AE-4D97-8050-AE23739A9A03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="386529368"/>
+        <c:axId val="386530352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="386529368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Camino o Ruta de prueba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386530352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="386530352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" sz="1050" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tiempo de ejecución promedio [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX" sz="1050">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386529368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Tiempo de ejecución promedio utilizando</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> razonamiento basado en casos</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Razonamiento basado en casos'!$A$2:$B$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Universidad - Centro Médico</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Mixcoac-Tlatenco</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Polanco-Tepito</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Cuatro Caminos-Ciudad Azteca</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>El Rosario - La Paz</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Universidad - Centro Médico</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Mixcoac-Tlatenco</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Polanco-Tepito</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Cuatro Caminos-Ciudad Azteca</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>El Rosario - La Paz</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Universidad - Centro Médico</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mixcoac-Tlatenco</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Polanco-Tepito</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Cuatro Caminos-Ciudad Azteca</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>El Rosario - La Paz</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Universidad - Centro Médico</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Mixcoac-Tlatenco</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Polanco-Tepito</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Cuatro Caminos-Ciudad Azteca</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>El Rosario - La Paz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>7</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Razonamiento basado en casos'!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.8666666666666662E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7333333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0666666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7666666666666662E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0666666666666663E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0666666666666663E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.2666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12533333333333332</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D97D-48E2-9773-571A340F563D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="449448216"/>
+        <c:axId val="449448872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="449448216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> con la que se guardan los casos por camino o ruta de prueba</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449448872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="449448872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> de ejecución promedio [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449448216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Tiempo de ejecución promeido utilizando A*</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>AEstrellaGeo!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Universidad - Centro Médico</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mixcoac - Tlatenco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Polanco - Tepito</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cuatro Caminos - Ciudad Azteca</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>El Rosario - La Paz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AEstrellaGeo!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.5333333333333325E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12033333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C4C-4451-9D00-4B37D7536C5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="452083088"/>
+        <c:axId val="452080792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="452083088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Camino o Ruta de prueba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452080792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="452080792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Tiempo de</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> ejecución promedio [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452083088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>259080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>329160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7ED352-5FDE-4E7A-AFA6-437969435D7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57FC135-238F-4EBB-AF54-AE7D726934A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100560</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>176580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3BCE44-1487-4BAC-95BE-BB0B2A83ACC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,9 +3760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A022E970-A767-433C-A7F2-33B5212D2209}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1019,6 +4179,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1026,17 +4187,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895BB14C-3C4F-429B-910F-47BCC3748937}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1446,6 +4608,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1453,16 +4616,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F880C9E-1445-4882-B7E3-CDBEAF82D440}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1499,7 +4661,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" s="14">
         <v>9.2999999999999999E-2</v>
@@ -1517,7 +4679,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" s="14">
         <v>6.9000000000000006E-2</v>
@@ -1535,7 +4697,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="14">
         <v>0.14799999999999999</v>
@@ -1571,5 +4733,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>